--- a/mitchell/Notes/社員データ(ミッチェル).xlsx
+++ b/mitchell/Notes/社員データ(ミッチェル).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\99_チーム内打合せ用（総合演習）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\mitchell\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -848,12 +848,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -870,11 +882,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,46 +1194,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
